--- a/CodeSystem-nigeria-lgas.xlsx
+++ b/CodeSystem-nigeria-lgas.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-lgas.xlsx
+++ b/CodeSystem-nigeria-lgas.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NG LGAs in Nigeria</t>
+    <t>NG-Imm LGAs in Nigeria CS</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T13:45:54+01:00</t>
+    <t>2025-06-24T09:13:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -6183,10 +6183,10 @@
     <t>ri-abua-odual</t>
   </si>
   <si>
-    <t>abua (odual)</t>
-  </si>
-  <si>
-    <t>Abua (Odual) LGA</t>
+    <t>abua odual</t>
+  </si>
+  <si>
+    <t>Abua Odual LGA</t>
   </si>
   <si>
     <t>ri-ahoada-east</t>
@@ -6405,7 +6405,7 @@
     <t>Bodinga LGA</t>
   </si>
   <si>
-    <t>so-dangeshuni</t>
+    <t>so-dange-shuni</t>
   </si>
   <si>
     <t>dange shuni</t>
@@ -6657,7 +6657,7 @@
     <t>Jalingo LGA</t>
   </si>
   <si>
-    <t>ta-karimlamido</t>
+    <t>ta-karim-lamido</t>
   </si>
   <si>
     <t>karim lamido</t>
@@ -6912,7 +6912,7 @@
     <t>za-birnin-magaji</t>
   </si>
   <si>
-    <t>birnin magaji</t>
+    <t>birnin magaji (kiyaw)</t>
   </si>
   <si>
     <t>Birnin Magaji (Kiyaw) LGA</t>

--- a/CodeSystem-nigeria-lgas.xlsx
+++ b/CodeSystem-nigeria-lgas.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T09:13:37+01:00</t>
+    <t>2025-06-25T06:29:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-lgas.xlsx
+++ b/CodeSystem-nigeria-lgas.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-30T08:07:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-lgas.xlsx
+++ b/CodeSystem-nigeria-lgas.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/CodeSystem/ng-lgas</t>
+    <t>https://nphcda.gov.ng/immunizationIG/CodeSystem/nigeria-lgas</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T08:07:26+01:00</t>
+    <t>2025-07-03T11:54:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-lgas.xlsx
+++ b/CodeSystem-nigeria-lgas.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T11:54:34+01:00</t>
+    <t>2025-07-03T13:36:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-lgas.xlsx
+++ b/CodeSystem-nigeria-lgas.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T13:36:09+01:00</t>
+    <t>2025-07-04T07:50:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-lgas.xlsx
+++ b/CodeSystem-nigeria-lgas.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T07:50:29+01:00</t>
+    <t>2025-07-04T16:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-lgas.xlsx
+++ b/CodeSystem-nigeria-lgas.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T16:58:52+01:00</t>
+    <t>2025-07-04T18:56:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-lgas.xlsx
+++ b/CodeSystem-nigeria-lgas.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T18:56:28+01:00</t>
+    <t>2025-07-04T19:33:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-lgas.xlsx
+++ b/CodeSystem-nigeria-lgas.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T19:33:02+01:00</t>
+    <t>2025-07-17T18:57:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-lgas.xlsx
+++ b/CodeSystem-nigeria-lgas.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T18:57:38+01:00</t>
+    <t>2025-08-03T02:35:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-lgas.xlsx
+++ b/CodeSystem-nigeria-lgas.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-03T02:35:31+01:00</t>
+    <t>2025-08-03T02:50:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
